--- a/va_facility_data_2025-02-20/Wilson and Young Medal of Honor VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wilson%20and%20Young%20Medal%20of%20Honor%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wilson and Young Medal of Honor VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wilson%20and%20Young%20Medal%20of%20Honor%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R81bbe09b4a734242b552faed5b87dd7b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd6d7742e519941c1985a16e3e82cb27d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfb471aca3a1a4d1a96ac98024588a026"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R52a5d4aa65074cc29c61c273c3340aad"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb3a7344a6d474a5ab5b815334ac2f3fc"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R80557089fe5f4587bd8d3cf4e8103ac8"/>
   </x:sheets>
 </x:workbook>
 </file>
